--- a/corehq/apps/app_manager/tests/data/bulk_app_translation/download/bulk_app_translations.xlsx
+++ b/corehq/apps/app_manager/tests/data/bulk_app_translation/download/bulk_app_translations.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="24816"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20225"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1980" yWindow="0" windowWidth="25600" windowHeight="15620" activeTab="1"/>
+    <workbookView xWindow="1980" yWindow="0" windowWidth="25600" windowHeight="15620"/>
   </bookViews>
   <sheets>
     <sheet name="Modules_and_forms" sheetId="1" r:id="rId1"/>
@@ -35,12 +35,6 @@
     <t>label_for_cases_en</t>
   </si>
   <si>
-    <t>icon_filepath</t>
-  </si>
-  <si>
-    <t>audio_filepath</t>
-  </si>
-  <si>
     <t>unique_id</t>
   </si>
   <si>
@@ -123,6 +117,12 @@
   </si>
   <si>
     <t>c480ace490edc870ae952765e8dfacec33c69fec</t>
+  </si>
+  <si>
+    <t>icon_filepath_en</t>
+  </si>
+  <si>
+    <t>audio_filepath_en</t>
   </si>
 </sst>
 </file>
@@ -520,8 +520,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -549,64 +549,63 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
         <v>13</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>14</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>15</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>16</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>17</v>
-      </c>
-      <c r="F2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
         <v>20</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" t="s">
-        <v>23</v>
-      </c>
       <c r="F3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -619,7 +618,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -632,10 +631,10 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
@@ -643,29 +642,28 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s">
         <v>29</v>
-      </c>
-      <c r="B2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" t="s">
         <v>29</v>
-      </c>
-      <c r="B3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -689,58 +687,57 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
       <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
         <v>10</v>
-      </c>
-      <c r="D1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
         <v>24</v>
       </c>
-      <c r="B2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" t="s">
-        <v>26</v>
-      </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/corehq/apps/app_manager/tests/data/bulk_app_translation/download/bulk_app_translations.xlsx
+++ b/corehq/apps/app_manager/tests/data/bulk_app_translation/download/bulk_app_translations.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="24816"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jschweers\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1980" yWindow="0" windowWidth="25600" windowHeight="15620" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9396" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Modules_and_forms" sheetId="1" r:id="rId1"/>
@@ -21,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="36">
   <si>
     <t>Type</t>
   </si>
@@ -123,6 +128,12 @@
   </si>
   <si>
     <t>c480ace490edc870ae952765e8dfacec33c69fec</t>
+  </si>
+  <si>
+    <t>has_refs-label</t>
+  </si>
+  <si>
+    <t>Here is a ref &lt;output value="/data/no_media"/&gt; with some trailing text.</t>
   </si>
 </sst>
 </file>
@@ -230,6 +241,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -524,18 +543,18 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.77734375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="36.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="36.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -558,7 +577,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -581,7 +600,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -619,18 +638,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -641,7 +660,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>29</v>
       </c>
@@ -652,7 +671,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>29</v>
       </c>
@@ -676,18 +695,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -704,7 +723,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>24</v>
       </c>
@@ -721,7 +740,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>27</v>
       </c>
@@ -736,6 +755,14 @@
       </c>
       <c r="E3" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/corehq/apps/app_manager/tests/data/bulk_app_translation/download/bulk_app_translations.xlsx
+++ b/corehq/apps/app_manager/tests/data/bulk_app_translation/download/bulk_app_translations.xlsx
@@ -112,7 +112,7 @@
     <t>has_refs-label</t>
   </si>
   <si>
-    <t>Here is a ref &lt;output value="/data/no_media"/&gt; with some trailing text.</t>
+    <t>Here is a ref &lt;output value="/data/no_media"/&gt; with some trailing text and bad &amp;lt; xml.</t>
   </si>
   <si>
     <t>name</t>
